--- a/Financials/Yearly/NTES_YR_FIN.xlsx
+++ b/Financials/Yearly/NTES_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7C78F8-558E-4B5E-AD57-3CC4D1E6C465}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NTES" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>NTES</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7868100</v>
+        <v>8029300</v>
       </c>
       <c r="E8" s="3">
-        <v>5552300</v>
+        <v>5666100</v>
       </c>
       <c r="F8" s="3">
-        <v>3316200</v>
+        <v>3384200</v>
       </c>
       <c r="G8" s="3">
-        <v>1703400</v>
+        <v>1738300</v>
       </c>
       <c r="H8" s="3">
-        <v>1337400</v>
+        <v>1364800</v>
       </c>
       <c r="I8" s="3">
-        <v>1192700</v>
+        <v>1217100</v>
       </c>
       <c r="J8" s="3">
-        <v>1060300</v>
+        <v>1082000</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4099600</v>
+        <v>4183600</v>
       </c>
       <c r="E9" s="3">
-        <v>2401800</v>
+        <v>2451000</v>
       </c>
       <c r="F9" s="3">
-        <v>1366900</v>
+        <v>1394900</v>
       </c>
       <c r="G9" s="3">
-        <v>474300</v>
+        <v>484000</v>
       </c>
       <c r="H9" s="3">
-        <v>360500</v>
+        <v>367800</v>
       </c>
       <c r="I9" s="3">
-        <v>374900</v>
+        <v>382600</v>
       </c>
       <c r="J9" s="3">
-        <v>345000</v>
+        <v>352100</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3768500</v>
+        <v>3845700</v>
       </c>
       <c r="E10" s="3">
-        <v>3150600</v>
+        <v>3215100</v>
       </c>
       <c r="F10" s="3">
-        <v>1949300</v>
+        <v>1989200</v>
       </c>
       <c r="G10" s="3">
-        <v>1229100</v>
+        <v>1254300</v>
       </c>
       <c r="H10" s="3">
-        <v>976900</v>
+        <v>997000</v>
       </c>
       <c r="I10" s="3">
-        <v>817700</v>
+        <v>834500</v>
       </c>
       <c r="J10" s="3">
-        <v>715300</v>
+        <v>729900</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,34 +835,34 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>635700</v>
+        <v>648800</v>
       </c>
       <c r="E12" s="3">
-        <v>443100</v>
+        <v>452200</v>
       </c>
       <c r="F12" s="3">
-        <v>314000</v>
+        <v>320400</v>
       </c>
       <c r="G12" s="3">
-        <v>192500</v>
+        <v>196400</v>
       </c>
       <c r="H12" s="3">
-        <v>134000</v>
+        <v>136800</v>
       </c>
       <c r="I12" s="3">
-        <v>104500</v>
+        <v>106600</v>
       </c>
       <c r="J12" s="3">
-        <v>67700</v>
+        <v>69100</v>
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,7 +889,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -881,7 +916,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -908,7 +943,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6100500</v>
+        <v>6225500</v>
       </c>
       <c r="E17" s="3">
-        <v>3715700</v>
+        <v>3791900</v>
       </c>
       <c r="F17" s="3">
-        <v>2258600</v>
+        <v>2304900</v>
       </c>
       <c r="G17" s="3">
-        <v>1010400</v>
+        <v>1031100</v>
       </c>
       <c r="H17" s="3">
-        <v>704400</v>
+        <v>718800</v>
       </c>
       <c r="I17" s="3">
-        <v>652900</v>
+        <v>666300</v>
       </c>
       <c r="J17" s="3">
-        <v>577000</v>
+        <v>588800</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1767500</v>
+        <v>1803700</v>
       </c>
       <c r="E18" s="3">
-        <v>1836600</v>
+        <v>1874200</v>
       </c>
       <c r="F18" s="3">
-        <v>1057600</v>
+        <v>1079300</v>
       </c>
       <c r="G18" s="3">
-        <v>693000</v>
+        <v>707200</v>
       </c>
       <c r="H18" s="3">
-        <v>633000</v>
+        <v>646000</v>
       </c>
       <c r="I18" s="3">
-        <v>539800</v>
+        <v>550800</v>
       </c>
       <c r="J18" s="3">
-        <v>483300</v>
+        <v>493200</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -985,69 +1020,69 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>138100</v>
+        <v>141000</v>
       </c>
       <c r="E20" s="3">
-        <v>188900</v>
+        <v>192700</v>
       </c>
       <c r="F20" s="3">
-        <v>124700</v>
+        <v>127200</v>
       </c>
       <c r="G20" s="3">
-        <v>103700</v>
+        <v>105800</v>
       </c>
       <c r="H20" s="3">
-        <v>92400</v>
+        <v>94300</v>
       </c>
       <c r="I20" s="3">
-        <v>82400</v>
+        <v>84100</v>
       </c>
       <c r="J20" s="3">
-        <v>42500</v>
+        <v>43400</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2022600</v>
+        <v>2063900</v>
       </c>
       <c r="E21" s="3">
-        <v>2073300</v>
+        <v>2115700</v>
       </c>
       <c r="F21" s="3">
-        <v>1208900</v>
+        <v>1233600</v>
       </c>
       <c r="G21" s="3">
-        <v>822100</v>
+        <v>838900</v>
       </c>
       <c r="H21" s="3">
-        <v>748500</v>
+        <v>763800</v>
       </c>
       <c r="I21" s="3">
-        <v>656200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>568600</v>
+        <v>669600</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="E22" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="F22" s="3">
         <v>2800</v>
@@ -1066,61 +1101,61 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1892300</v>
+        <v>1931000</v>
       </c>
       <c r="E23" s="3">
-        <v>2020800</v>
+        <v>2062200</v>
       </c>
       <c r="F23" s="3">
-        <v>1179500</v>
+        <v>1203700</v>
       </c>
       <c r="G23" s="3">
-        <v>793800</v>
+        <v>810100</v>
       </c>
       <c r="H23" s="3">
-        <v>723600</v>
+        <v>738500</v>
       </c>
       <c r="I23" s="3">
-        <v>622200</v>
+        <v>634900</v>
       </c>
       <c r="J23" s="3">
-        <v>525800</v>
+        <v>536600</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>314500</v>
+        <v>320900</v>
       </c>
       <c r="E24" s="3">
-        <v>305800</v>
+        <v>312000</v>
       </c>
       <c r="F24" s="3">
-        <v>185200</v>
+        <v>189000</v>
       </c>
       <c r="G24" s="3">
-        <v>96400</v>
+        <v>98400</v>
       </c>
       <c r="H24" s="3">
-        <v>77200</v>
+        <v>78700</v>
       </c>
       <c r="I24" s="3">
-        <v>100600</v>
+        <v>102600</v>
       </c>
       <c r="J24" s="3">
-        <v>57100</v>
+        <v>58300</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1577800</v>
+        <v>1610100</v>
       </c>
       <c r="E26" s="3">
-        <v>1715000</v>
+        <v>1750200</v>
       </c>
       <c r="F26" s="3">
-        <v>994300</v>
+        <v>1014700</v>
       </c>
       <c r="G26" s="3">
-        <v>697400</v>
+        <v>711700</v>
       </c>
       <c r="H26" s="3">
-        <v>646500</v>
+        <v>659700</v>
       </c>
       <c r="I26" s="3">
-        <v>521600</v>
+        <v>532300</v>
       </c>
       <c r="J26" s="3">
-        <v>468700</v>
+        <v>478300</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1557300</v>
+        <v>1589200</v>
       </c>
       <c r="E27" s="3">
-        <v>1687600</v>
+        <v>1722200</v>
       </c>
       <c r="F27" s="3">
-        <v>979500</v>
+        <v>999600</v>
       </c>
       <c r="G27" s="3">
-        <v>691800</v>
+        <v>705900</v>
       </c>
       <c r="H27" s="3">
-        <v>646300</v>
+        <v>659500</v>
       </c>
       <c r="I27" s="3">
-        <v>529000</v>
+        <v>539800</v>
       </c>
       <c r="J27" s="3">
-        <v>470400</v>
+        <v>480000</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-138100</v>
+        <v>-141000</v>
       </c>
       <c r="E32" s="3">
-        <v>-188900</v>
+        <v>-192700</v>
       </c>
       <c r="F32" s="3">
-        <v>-124700</v>
+        <v>-127200</v>
       </c>
       <c r="G32" s="3">
-        <v>-103700</v>
+        <v>-105800</v>
       </c>
       <c r="H32" s="3">
-        <v>-92400</v>
+        <v>-94300</v>
       </c>
       <c r="I32" s="3">
-        <v>-82400</v>
+        <v>-84100</v>
       </c>
       <c r="J32" s="3">
-        <v>-42500</v>
+        <v>-43400</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1557300</v>
+        <v>1589200</v>
       </c>
       <c r="E33" s="3">
-        <v>1687600</v>
+        <v>1722200</v>
       </c>
       <c r="F33" s="3">
-        <v>979500</v>
+        <v>999600</v>
       </c>
       <c r="G33" s="3">
-        <v>691800</v>
+        <v>705900</v>
       </c>
       <c r="H33" s="3">
-        <v>646300</v>
+        <v>659500</v>
       </c>
       <c r="I33" s="3">
-        <v>529000</v>
+        <v>539800</v>
       </c>
       <c r="J33" s="3">
-        <v>470400</v>
+        <v>480000</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1557300</v>
+        <v>1589200</v>
       </c>
       <c r="E35" s="3">
-        <v>1687600</v>
+        <v>1722200</v>
       </c>
       <c r="F35" s="3">
-        <v>979500</v>
+        <v>999600</v>
       </c>
       <c r="G35" s="3">
-        <v>691800</v>
+        <v>705900</v>
       </c>
       <c r="H35" s="3">
-        <v>646300</v>
+        <v>659500</v>
       </c>
       <c r="I35" s="3">
-        <v>529000</v>
+        <v>539800</v>
       </c>
       <c r="J35" s="3">
-        <v>470400</v>
+        <v>480000</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,99 +1510,99 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>402000</v>
+        <v>410200</v>
       </c>
       <c r="E41" s="3">
-        <v>791100</v>
+        <v>807300</v>
       </c>
       <c r="F41" s="3">
-        <v>883000</v>
+        <v>901100</v>
       </c>
       <c r="G41" s="3">
-        <v>294000</v>
+        <v>300000</v>
       </c>
       <c r="H41" s="3">
-        <v>212100</v>
+        <v>216400</v>
       </c>
       <c r="I41" s="3">
-        <v>231300</v>
+        <v>236100</v>
       </c>
       <c r="J41" s="3">
-        <v>322100</v>
+        <v>328700</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5867500</v>
+        <v>5987800</v>
       </c>
       <c r="E42" s="3">
-        <v>4500100</v>
+        <v>4592300</v>
       </c>
       <c r="F42" s="3">
-        <v>2851400</v>
+        <v>2909800</v>
       </c>
       <c r="G42" s="3">
-        <v>2989300</v>
+        <v>3050600</v>
       </c>
       <c r="H42" s="3">
-        <v>2548900</v>
+        <v>2601100</v>
       </c>
       <c r="I42" s="3">
-        <v>2061100</v>
+        <v>2103300</v>
       </c>
       <c r="J42" s="3">
-        <v>1555900</v>
+        <v>1587700</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>648800</v>
+        <v>662100</v>
       </c>
       <c r="E43" s="3">
-        <v>1315600</v>
+        <v>1342500</v>
       </c>
       <c r="F43" s="3">
-        <v>428400</v>
+        <v>437200</v>
       </c>
       <c r="G43" s="3">
-        <v>183600</v>
+        <v>187400</v>
       </c>
       <c r="H43" s="3">
-        <v>99500</v>
+        <v>101500</v>
       </c>
       <c r="I43" s="3">
-        <v>67200</v>
+        <v>68600</v>
       </c>
       <c r="J43" s="3">
-        <v>49800</v>
+        <v>50800</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>796200</v>
+        <v>812500</v>
       </c>
       <c r="E44" s="3">
-        <v>229500</v>
+        <v>234200</v>
       </c>
       <c r="F44" s="3">
-        <v>118900</v>
+        <v>121400</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>17</v>
@@ -1583,129 +1618,129 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1294500</v>
+        <v>1321100</v>
       </c>
       <c r="E45" s="3">
-        <v>1809200</v>
+        <v>1846200</v>
       </c>
       <c r="F45" s="3">
-        <v>722400</v>
+        <v>737200</v>
       </c>
       <c r="G45" s="3">
-        <v>566200</v>
+        <v>577800</v>
       </c>
       <c r="H45" s="3">
-        <v>455000</v>
+        <v>464300</v>
       </c>
       <c r="I45" s="3">
-        <v>239000</v>
+        <v>243900</v>
       </c>
       <c r="J45" s="3">
-        <v>177300</v>
+        <v>180900</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9009100</v>
+        <v>9193700</v>
       </c>
       <c r="E46" s="3">
-        <v>7181800</v>
+        <v>7329000</v>
       </c>
       <c r="F46" s="3">
-        <v>5004100</v>
+        <v>5106600</v>
       </c>
       <c r="G46" s="3">
-        <v>4033100</v>
+        <v>4115800</v>
       </c>
       <c r="H46" s="3">
-        <v>3315500</v>
+        <v>3383400</v>
       </c>
       <c r="I46" s="3">
-        <v>2598600</v>
+        <v>2651900</v>
       </c>
       <c r="J46" s="3">
-        <v>2105000</v>
+        <v>2148100</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>405000</v>
+        <v>413300</v>
       </c>
       <c r="E47" s="3">
-        <v>366500</v>
+        <v>374000</v>
       </c>
       <c r="F47" s="3">
-        <v>418100</v>
+        <v>426600</v>
       </c>
       <c r="G47" s="3">
-        <v>152800</v>
+        <v>155900</v>
       </c>
       <c r="H47" s="3">
-        <v>111400</v>
+        <v>113700</v>
       </c>
       <c r="I47" s="3">
-        <v>76300</v>
+        <v>77800</v>
       </c>
       <c r="J47" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>548200</v>
+        <v>559400</v>
       </c>
       <c r="E48" s="3">
-        <v>703700</v>
+        <v>718200</v>
       </c>
       <c r="F48" s="3">
-        <v>304200</v>
+        <v>310500</v>
       </c>
       <c r="G48" s="3">
-        <v>186300</v>
+        <v>190100</v>
       </c>
       <c r="H48" s="3">
-        <v>126800</v>
+        <v>129400</v>
       </c>
       <c r="I48" s="3">
-        <v>118500</v>
+        <v>121000</v>
       </c>
       <c r="J48" s="3">
-        <v>123400</v>
+        <v>125900</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>205600</v>
+        <v>209800</v>
       </c>
       <c r="E49" s="3">
-        <v>122600</v>
+        <v>125100</v>
       </c>
       <c r="F49" s="3">
-        <v>62500</v>
+        <v>63800</v>
       </c>
       <c r="G49" s="3">
-        <v>27000</v>
+        <v>27600</v>
       </c>
       <c r="H49" s="3">
         <v>3500</v>
@@ -1714,11 +1749,11 @@
         <v>1700</v>
       </c>
       <c r="J49" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>162300</v>
+        <v>165600</v>
       </c>
       <c r="E52" s="3">
-        <v>776000</v>
+        <v>791900</v>
       </c>
       <c r="F52" s="3">
-        <v>196600</v>
+        <v>200600</v>
       </c>
       <c r="G52" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="H52" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="I52" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="J52" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10330100</v>
+        <v>10541800</v>
       </c>
       <c r="E54" s="3">
-        <v>8439600</v>
+        <v>8612500</v>
       </c>
       <c r="F54" s="3">
-        <v>5985500</v>
+        <v>6108200</v>
       </c>
       <c r="G54" s="3">
-        <v>4414500</v>
+        <v>4504900</v>
       </c>
       <c r="H54" s="3">
-        <v>3569800</v>
+        <v>3642900</v>
       </c>
       <c r="I54" s="3">
-        <v>2803600</v>
+        <v>2861000</v>
       </c>
       <c r="J54" s="3">
-        <v>2246200</v>
+        <v>2292200</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,51 +1914,51 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>355200</v>
+        <v>362500</v>
       </c>
       <c r="E57" s="3">
-        <v>203000</v>
+        <v>207200</v>
       </c>
       <c r="F57" s="3">
-        <v>101900</v>
+        <v>104000</v>
       </c>
       <c r="G57" s="3">
-        <v>59700</v>
+        <v>61000</v>
       </c>
       <c r="H57" s="3">
-        <v>31900</v>
+        <v>32500</v>
       </c>
       <c r="I57" s="3">
-        <v>22900</v>
+        <v>23400</v>
       </c>
       <c r="J57" s="3">
-        <v>19500</v>
+        <v>19900</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>963300</v>
+        <v>983000</v>
       </c>
       <c r="E58" s="3">
-        <v>554900</v>
+        <v>566300</v>
       </c>
       <c r="F58" s="3">
-        <v>330500</v>
+        <v>337300</v>
       </c>
       <c r="G58" s="3">
-        <v>298100</v>
+        <v>304200</v>
       </c>
       <c r="H58" s="3">
-        <v>141900</v>
+        <v>144800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>17</v>
@@ -1933,61 +1968,61 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2135500</v>
+        <v>2179300</v>
       </c>
       <c r="E59" s="3">
-        <v>2551200</v>
+        <v>2603500</v>
       </c>
       <c r="F59" s="3">
-        <v>1264400</v>
+        <v>1290300</v>
       </c>
       <c r="G59" s="3">
-        <v>624700</v>
+        <v>637500</v>
       </c>
       <c r="H59" s="3">
-        <v>441900</v>
+        <v>450900</v>
       </c>
       <c r="I59" s="3">
-        <v>497200</v>
+        <v>507400</v>
       </c>
       <c r="J59" s="3">
-        <v>312400</v>
+        <v>318800</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3454000</v>
+        <v>3524800</v>
       </c>
       <c r="E60" s="3">
-        <v>2788800</v>
+        <v>2846000</v>
       </c>
       <c r="F60" s="3">
-        <v>1696800</v>
+        <v>1731600</v>
       </c>
       <c r="G60" s="3">
-        <v>982600</v>
+        <v>1002700</v>
       </c>
       <c r="H60" s="3">
-        <v>615600</v>
+        <v>628200</v>
       </c>
       <c r="I60" s="3">
-        <v>520100</v>
+        <v>530800</v>
       </c>
       <c r="J60" s="3">
-        <v>332000</v>
+        <v>338800</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2014,34 +2049,34 @@
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>33700</v>
+        <v>34400</v>
       </c>
       <c r="E62" s="3">
-        <v>57100</v>
+        <v>58200</v>
       </c>
       <c r="F62" s="3">
-        <v>24200</v>
+        <v>24700</v>
       </c>
       <c r="G62" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="H62" s="3">
-        <v>21100</v>
+        <v>21500</v>
       </c>
       <c r="I62" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="J62" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3679300</v>
+        <v>3754700</v>
       </c>
       <c r="E66" s="3">
-        <v>2885400</v>
+        <v>2944600</v>
       </c>
       <c r="F66" s="3">
-        <v>1733100</v>
+        <v>1768700</v>
       </c>
       <c r="G66" s="3">
-        <v>1012800</v>
+        <v>1033600</v>
       </c>
       <c r="H66" s="3">
-        <v>625500</v>
+        <v>638300</v>
       </c>
       <c r="I66" s="3">
-        <v>523200</v>
+        <v>533900</v>
       </c>
       <c r="J66" s="3">
-        <v>337100</v>
+        <v>344000</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6390100</v>
+        <v>6521000</v>
       </c>
       <c r="E72" s="3">
-        <v>5306600</v>
+        <v>5415300</v>
       </c>
       <c r="F72" s="3">
-        <v>3989200</v>
+        <v>4071000</v>
       </c>
       <c r="G72" s="3">
-        <v>3086600</v>
+        <v>3149800</v>
       </c>
       <c r="H72" s="3">
-        <v>2691800</v>
+        <v>2746900</v>
       </c>
       <c r="I72" s="3">
-        <v>2081000</v>
+        <v>2123700</v>
       </c>
       <c r="J72" s="3">
-        <v>1694100</v>
+        <v>1728800</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6650800</v>
+        <v>6787100</v>
       </c>
       <c r="E76" s="3">
-        <v>5554100</v>
+        <v>5667900</v>
       </c>
       <c r="F76" s="3">
-        <v>4252400</v>
+        <v>4339500</v>
       </c>
       <c r="G76" s="3">
-        <v>3401700</v>
+        <v>3471400</v>
       </c>
       <c r="H76" s="3">
-        <v>2944300</v>
+        <v>3004600</v>
       </c>
       <c r="I76" s="3">
-        <v>2280400</v>
+        <v>2327200</v>
       </c>
       <c r="J76" s="3">
-        <v>1909000</v>
+        <v>1948100</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1557300</v>
+        <v>1589200</v>
       </c>
       <c r="E81" s="3">
-        <v>1687600</v>
+        <v>1722200</v>
       </c>
       <c r="F81" s="3">
-        <v>979500</v>
+        <v>999600</v>
       </c>
       <c r="G81" s="3">
-        <v>691800</v>
+        <v>705900</v>
       </c>
       <c r="H81" s="3">
-        <v>646300</v>
+        <v>659500</v>
       </c>
       <c r="I81" s="3">
-        <v>529000</v>
+        <v>539800</v>
       </c>
       <c r="J81" s="3">
-        <v>470400</v>
+        <v>480000</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>116600</v>
+        <v>119000</v>
       </c>
       <c r="E83" s="3">
-        <v>47600</v>
+        <v>48600</v>
       </c>
       <c r="F83" s="3">
-        <v>26500</v>
+        <v>27100</v>
       </c>
       <c r="G83" s="3">
-        <v>25400</v>
+        <v>25900</v>
       </c>
       <c r="H83" s="3">
-        <v>23000</v>
+        <v>23500</v>
       </c>
       <c r="I83" s="3">
-        <v>34000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>42600</v>
+        <v>34700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1729100</v>
+        <v>1764500</v>
       </c>
       <c r="E89" s="3">
-        <v>2252500</v>
+        <v>2298600</v>
       </c>
       <c r="F89" s="3">
-        <v>1174600</v>
+        <v>1198700</v>
       </c>
       <c r="G89" s="3">
-        <v>854100</v>
+        <v>871600</v>
       </c>
       <c r="H89" s="3">
-        <v>761500</v>
+        <v>777100</v>
       </c>
       <c r="I89" s="3">
-        <v>614300</v>
+        <v>626900</v>
       </c>
       <c r="J89" s="3">
-        <v>592300</v>
+        <v>604500</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-367100</v>
+        <v>-273500</v>
       </c>
       <c r="E91" s="3">
-        <v>-165800</v>
+        <v>-168500</v>
       </c>
       <c r="F91" s="3">
-        <v>-149900</v>
+        <v>-128600</v>
       </c>
       <c r="G91" s="3">
-        <v>-89900</v>
+        <v>-79800</v>
       </c>
       <c r="H91" s="3">
-        <v>-32000</v>
+        <v>-32500</v>
       </c>
       <c r="I91" s="3">
-        <v>-26000</v>
+        <v>-26500</v>
       </c>
       <c r="J91" s="3">
-        <v>-65500</v>
+        <v>-60900</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1926800</v>
+        <v>-1907900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2036300</v>
+        <v>-2078000</v>
       </c>
       <c r="F94" s="3">
-        <v>-368900</v>
+        <v>-376400</v>
       </c>
       <c r="G94" s="3">
-        <v>-657400</v>
+        <v>-670800</v>
       </c>
       <c r="H94" s="3">
-        <v>-793100</v>
+        <v>-809300</v>
       </c>
       <c r="I94" s="3">
-        <v>-647800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-466600</v>
+        <v>-661000</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,24 +2862,24 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-473800</v>
+        <v>-483500</v>
       </c>
       <c r="E96" s="3">
-        <v>-370300</v>
+        <v>-377900</v>
       </c>
       <c r="F96" s="3">
-        <v>-213500</v>
+        <v>-217900</v>
       </c>
       <c r="G96" s="3">
-        <v>-288400</v>
+        <v>-294300</v>
       </c>
       <c r="H96" s="3">
-        <v>-118600</v>
+        <v>-121000</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -2854,7 +2889,7 @@
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,48 +2970,48 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-189500</v>
+        <v>-193300</v>
       </c>
       <c r="E100" s="3">
-        <v>-327300</v>
+        <v>-334000</v>
       </c>
       <c r="F100" s="3">
-        <v>-237400</v>
+        <v>-242300</v>
       </c>
       <c r="G100" s="3">
-        <v>-113200</v>
+        <v>-115500</v>
       </c>
       <c r="H100" s="3">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="I100" s="3">
-        <v>-56800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>10700</v>
+        <v>-57900</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="E101" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="F101" s="3">
-        <v>20700</v>
+        <v>21100</v>
       </c>
       <c r="G101" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H101" s="3">
         <v>-300</v>
@@ -2984,35 +3019,35 @@
       <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
-        <v>-1300</v>
+      <c r="J101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-389100</v>
+        <v>-338600</v>
       </c>
       <c r="E102" s="3">
-        <v>-91900</v>
+        <v>-93800</v>
       </c>
       <c r="F102" s="3">
-        <v>589000</v>
+        <v>601100</v>
       </c>
       <c r="G102" s="3">
-        <v>81900</v>
+        <v>83600</v>
       </c>
       <c r="H102" s="3">
-        <v>-19300</v>
+        <v>-19700</v>
       </c>
       <c r="I102" s="3">
-        <v>-90700</v>
+        <v>-92600</v>
       </c>
       <c r="J102" s="3">
-        <v>135200</v>
+        <v>137900</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/NTES_YR_FIN.xlsx
+++ b/Financials/Yearly/NTES_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7C78F8-558E-4B5E-AD57-3CC4D1E6C465}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="NTES" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8029300</v>
+        <v>9635600</v>
       </c>
       <c r="E8" s="3">
-        <v>5666100</v>
+        <v>7762600</v>
       </c>
       <c r="F8" s="3">
-        <v>3384200</v>
+        <v>5477900</v>
       </c>
       <c r="G8" s="3">
-        <v>1738300</v>
+        <v>3271800</v>
       </c>
       <c r="H8" s="3">
-        <v>1364800</v>
+        <v>1680600</v>
       </c>
       <c r="I8" s="3">
-        <v>1217100</v>
+        <v>1319500</v>
       </c>
       <c r="J8" s="3">
+        <v>1176700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1082000</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4183600</v>
+        <v>5560300</v>
       </c>
       <c r="E9" s="3">
-        <v>2451000</v>
+        <v>4044600</v>
       </c>
       <c r="F9" s="3">
-        <v>1394900</v>
+        <v>2369600</v>
       </c>
       <c r="G9" s="3">
-        <v>484000</v>
+        <v>1348600</v>
       </c>
       <c r="H9" s="3">
-        <v>367800</v>
+        <v>468000</v>
       </c>
       <c r="I9" s="3">
-        <v>382600</v>
+        <v>355600</v>
       </c>
       <c r="J9" s="3">
+        <v>369900</v>
+      </c>
+      <c r="K9" s="3">
         <v>352100</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3845700</v>
+        <v>4075300</v>
       </c>
       <c r="E10" s="3">
-        <v>3215100</v>
+        <v>3718000</v>
       </c>
       <c r="F10" s="3">
-        <v>1989200</v>
+        <v>3108300</v>
       </c>
       <c r="G10" s="3">
-        <v>1254300</v>
+        <v>1923200</v>
       </c>
       <c r="H10" s="3">
-        <v>997000</v>
+        <v>1212600</v>
       </c>
       <c r="I10" s="3">
-        <v>834500</v>
+        <v>963800</v>
       </c>
       <c r="J10" s="3">
+        <v>806800</v>
+      </c>
+      <c r="K10" s="3">
         <v>729900</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>648800</v>
+        <v>1118100</v>
       </c>
       <c r="E12" s="3">
-        <v>452200</v>
+        <v>627200</v>
       </c>
       <c r="F12" s="3">
-        <v>320400</v>
+        <v>437200</v>
       </c>
       <c r="G12" s="3">
-        <v>196400</v>
+        <v>309800</v>
       </c>
       <c r="H12" s="3">
-        <v>136800</v>
+        <v>189900</v>
       </c>
       <c r="I12" s="3">
-        <v>106600</v>
+        <v>132200</v>
       </c>
       <c r="J12" s="3">
+        <v>103100</v>
+      </c>
+      <c r="K12" s="3">
         <v>69100</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,9 +868,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -914,9 +898,12 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -941,9 +928,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6225500</v>
+        <v>8503100</v>
       </c>
       <c r="E17" s="3">
-        <v>3791900</v>
+        <v>6018700</v>
       </c>
       <c r="F17" s="3">
-        <v>2304900</v>
+        <v>3665900</v>
       </c>
       <c r="G17" s="3">
-        <v>1031100</v>
+        <v>2228400</v>
       </c>
       <c r="H17" s="3">
-        <v>718800</v>
+        <v>996900</v>
       </c>
       <c r="I17" s="3">
-        <v>666300</v>
+        <v>695000</v>
       </c>
       <c r="J17" s="3">
+        <v>644100</v>
+      </c>
+      <c r="K17" s="3">
         <v>588800</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1803700</v>
+        <v>1132500</v>
       </c>
       <c r="E18" s="3">
-        <v>1874200</v>
+        <v>1743800</v>
       </c>
       <c r="F18" s="3">
-        <v>1079300</v>
+        <v>1812000</v>
       </c>
       <c r="G18" s="3">
-        <v>707200</v>
+        <v>1043400</v>
       </c>
       <c r="H18" s="3">
-        <v>646000</v>
+        <v>683700</v>
       </c>
       <c r="I18" s="3">
-        <v>550800</v>
+        <v>624500</v>
       </c>
       <c r="J18" s="3">
+        <v>532500</v>
+      </c>
+      <c r="K18" s="3">
         <v>493200</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>141000</v>
+        <v>196500</v>
       </c>
       <c r="E20" s="3">
-        <v>192700</v>
+        <v>136300</v>
       </c>
       <c r="F20" s="3">
-        <v>127200</v>
+        <v>186300</v>
       </c>
       <c r="G20" s="3">
-        <v>105800</v>
+        <v>123000</v>
       </c>
       <c r="H20" s="3">
-        <v>94300</v>
+        <v>102300</v>
       </c>
       <c r="I20" s="3">
-        <v>84100</v>
+        <v>91200</v>
       </c>
       <c r="J20" s="3">
+        <v>81300</v>
+      </c>
+      <c r="K20" s="3">
         <v>43400</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2063900</v>
+        <v>1627800</v>
       </c>
       <c r="E21" s="3">
-        <v>2115700</v>
+        <v>1995100</v>
       </c>
       <c r="F21" s="3">
-        <v>1233600</v>
+        <v>2045300</v>
       </c>
       <c r="G21" s="3">
-        <v>838900</v>
+        <v>1192600</v>
       </c>
       <c r="H21" s="3">
-        <v>763800</v>
+        <v>811000</v>
       </c>
       <c r="I21" s="3">
-        <v>669600</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>738400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>647300</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>13700</v>
+        <v>45600</v>
       </c>
       <c r="E22" s="3">
-        <v>4800</v>
+        <v>13200</v>
       </c>
       <c r="F22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H22" s="3">
         <v>2800</v>
       </c>
-      <c r="G22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1800</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1931000</v>
+        <v>1283300</v>
       </c>
       <c r="E23" s="3">
-        <v>2062200</v>
+        <v>1866900</v>
       </c>
       <c r="F23" s="3">
-        <v>1203700</v>
+        <v>1993700</v>
       </c>
       <c r="G23" s="3">
-        <v>810100</v>
+        <v>1163700</v>
       </c>
       <c r="H23" s="3">
-        <v>738500</v>
+        <v>783200</v>
       </c>
       <c r="I23" s="3">
-        <v>634900</v>
+        <v>713900</v>
       </c>
       <c r="J23" s="3">
+        <v>613800</v>
+      </c>
+      <c r="K23" s="3">
         <v>536600</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>320900</v>
+        <v>353900</v>
       </c>
       <c r="E24" s="3">
-        <v>312000</v>
+        <v>310300</v>
       </c>
       <c r="F24" s="3">
-        <v>189000</v>
+        <v>301700</v>
       </c>
       <c r="G24" s="3">
-        <v>98400</v>
+        <v>182700</v>
       </c>
       <c r="H24" s="3">
-        <v>78700</v>
+        <v>95100</v>
       </c>
       <c r="I24" s="3">
-        <v>102600</v>
+        <v>76100</v>
       </c>
       <c r="J24" s="3">
+        <v>99200</v>
+      </c>
+      <c r="K24" s="3">
         <v>58300</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1610100</v>
+        <v>929400</v>
       </c>
       <c r="E26" s="3">
-        <v>1750200</v>
+        <v>1556600</v>
       </c>
       <c r="F26" s="3">
-        <v>1014700</v>
+        <v>1692000</v>
       </c>
       <c r="G26" s="3">
-        <v>711700</v>
+        <v>981000</v>
       </c>
       <c r="H26" s="3">
-        <v>659700</v>
+        <v>688100</v>
       </c>
       <c r="I26" s="3">
-        <v>532300</v>
+        <v>637800</v>
       </c>
       <c r="J26" s="3">
+        <v>514600</v>
+      </c>
+      <c r="K26" s="3">
         <v>478300</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1589200</v>
+        <v>882700</v>
       </c>
       <c r="E27" s="3">
-        <v>1722200</v>
+        <v>1536400</v>
       </c>
       <c r="F27" s="3">
-        <v>999600</v>
+        <v>1665000</v>
       </c>
       <c r="G27" s="3">
-        <v>705900</v>
+        <v>966400</v>
       </c>
       <c r="H27" s="3">
-        <v>659500</v>
+        <v>682500</v>
       </c>
       <c r="I27" s="3">
-        <v>539800</v>
+        <v>637600</v>
       </c>
       <c r="J27" s="3">
+        <v>521900</v>
+      </c>
+      <c r="K27" s="3">
         <v>480000</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1288,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-141000</v>
+        <v>-196500</v>
       </c>
       <c r="E32" s="3">
-        <v>-192700</v>
+        <v>-136300</v>
       </c>
       <c r="F32" s="3">
-        <v>-127200</v>
+        <v>-186300</v>
       </c>
       <c r="G32" s="3">
-        <v>-105800</v>
+        <v>-123000</v>
       </c>
       <c r="H32" s="3">
-        <v>-94300</v>
+        <v>-102300</v>
       </c>
       <c r="I32" s="3">
-        <v>-84100</v>
+        <v>-91200</v>
       </c>
       <c r="J32" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-43400</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1589200</v>
+        <v>882700</v>
       </c>
       <c r="E33" s="3">
-        <v>1722200</v>
+        <v>1536400</v>
       </c>
       <c r="F33" s="3">
-        <v>999600</v>
+        <v>1665000</v>
       </c>
       <c r="G33" s="3">
-        <v>705900</v>
+        <v>966400</v>
       </c>
       <c r="H33" s="3">
-        <v>659500</v>
+        <v>682500</v>
       </c>
       <c r="I33" s="3">
-        <v>539800</v>
+        <v>637600</v>
       </c>
       <c r="J33" s="3">
+        <v>521900</v>
+      </c>
+      <c r="K33" s="3">
         <v>480000</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1589200</v>
+        <v>882700</v>
       </c>
       <c r="E35" s="3">
-        <v>1722200</v>
+        <v>1536400</v>
       </c>
       <c r="F35" s="3">
-        <v>999600</v>
+        <v>1665000</v>
       </c>
       <c r="G35" s="3">
-        <v>705900</v>
+        <v>966400</v>
       </c>
       <c r="H35" s="3">
-        <v>659500</v>
+        <v>682500</v>
       </c>
       <c r="I35" s="3">
-        <v>539800</v>
+        <v>637600</v>
       </c>
       <c r="J35" s="3">
+        <v>521900</v>
+      </c>
+      <c r="K35" s="3">
         <v>480000</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,103 +1559,113 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>410200</v>
+        <v>715700</v>
       </c>
       <c r="E41" s="3">
-        <v>807300</v>
+        <v>396600</v>
       </c>
       <c r="F41" s="3">
-        <v>901100</v>
+        <v>780500</v>
       </c>
       <c r="G41" s="3">
-        <v>300000</v>
+        <v>871100</v>
       </c>
       <c r="H41" s="3">
-        <v>216400</v>
+        <v>290000</v>
       </c>
       <c r="I41" s="3">
-        <v>236100</v>
+        <v>209200</v>
       </c>
       <c r="J41" s="3">
+        <v>228200</v>
+      </c>
+      <c r="K41" s="3">
         <v>328700</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5987800</v>
+        <v>6395600</v>
       </c>
       <c r="E42" s="3">
-        <v>4592300</v>
+        <v>5788800</v>
       </c>
       <c r="F42" s="3">
-        <v>2909800</v>
+        <v>4439700</v>
       </c>
       <c r="G42" s="3">
-        <v>3050600</v>
+        <v>2813200</v>
       </c>
       <c r="H42" s="3">
-        <v>2601100</v>
+        <v>2949200</v>
       </c>
       <c r="I42" s="3">
-        <v>2103300</v>
+        <v>2514700</v>
       </c>
       <c r="J42" s="3">
+        <v>2033400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1587700</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>662100</v>
+        <v>1336300</v>
       </c>
       <c r="E43" s="3">
-        <v>1342500</v>
+        <v>640100</v>
       </c>
       <c r="F43" s="3">
-        <v>437200</v>
+        <v>1297900</v>
       </c>
       <c r="G43" s="3">
-        <v>187400</v>
+        <v>422600</v>
       </c>
       <c r="H43" s="3">
-        <v>101500</v>
+        <v>181100</v>
       </c>
       <c r="I43" s="3">
-        <v>68600</v>
+        <v>98200</v>
       </c>
       <c r="J43" s="3">
+        <v>66300</v>
+      </c>
+      <c r="K43" s="3">
         <v>50800</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>812500</v>
+        <v>152900</v>
       </c>
       <c r="E44" s="3">
-        <v>234200</v>
+        <v>785500</v>
       </c>
       <c r="F44" s="3">
-        <v>121400</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>17</v>
+        <v>226400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>117300</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>17</v>
@@ -1616,144 +1676,162 @@
       <c r="J44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1321100</v>
+        <v>2538100</v>
       </c>
       <c r="E45" s="3">
-        <v>1846200</v>
+        <v>1277200</v>
       </c>
       <c r="F45" s="3">
-        <v>737200</v>
+        <v>1784900</v>
       </c>
       <c r="G45" s="3">
-        <v>577800</v>
+        <v>712700</v>
       </c>
       <c r="H45" s="3">
-        <v>464300</v>
+        <v>558600</v>
       </c>
       <c r="I45" s="3">
-        <v>243900</v>
+        <v>448900</v>
       </c>
       <c r="J45" s="3">
+        <v>235800</v>
+      </c>
+      <c r="K45" s="3">
         <v>180900</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9193700</v>
+        <v>9859300</v>
       </c>
       <c r="E46" s="3">
-        <v>7329000</v>
+        <v>8888300</v>
       </c>
       <c r="F46" s="3">
-        <v>5106600</v>
+        <v>7085500</v>
       </c>
       <c r="G46" s="3">
-        <v>4115800</v>
+        <v>4937000</v>
       </c>
       <c r="H46" s="3">
-        <v>3383400</v>
+        <v>3979100</v>
       </c>
       <c r="I46" s="3">
-        <v>2651900</v>
+        <v>3271000</v>
       </c>
       <c r="J46" s="3">
+        <v>2563800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2148100</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>413300</v>
+        <v>767100</v>
       </c>
       <c r="E47" s="3">
-        <v>374000</v>
+        <v>399600</v>
       </c>
       <c r="F47" s="3">
-        <v>426600</v>
+        <v>361600</v>
       </c>
       <c r="G47" s="3">
-        <v>155900</v>
+        <v>412500</v>
       </c>
       <c r="H47" s="3">
-        <v>113700</v>
+        <v>150700</v>
       </c>
       <c r="I47" s="3">
-        <v>77800</v>
+        <v>109900</v>
       </c>
       <c r="J47" s="3">
+        <v>75200</v>
+      </c>
+      <c r="K47" s="3">
         <v>5000</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>559400</v>
+        <v>1442200</v>
       </c>
       <c r="E48" s="3">
-        <v>718200</v>
+        <v>540800</v>
       </c>
       <c r="F48" s="3">
-        <v>310500</v>
+        <v>694300</v>
       </c>
       <c r="G48" s="3">
-        <v>190100</v>
+        <v>300200</v>
       </c>
       <c r="H48" s="3">
-        <v>129400</v>
+        <v>183800</v>
       </c>
       <c r="I48" s="3">
-        <v>121000</v>
+        <v>125100</v>
       </c>
       <c r="J48" s="3">
+        <v>116900</v>
+      </c>
+      <c r="K48" s="3">
         <v>125900</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>209800</v>
+        <v>353700</v>
       </c>
       <c r="E49" s="3">
-        <v>125100</v>
+        <v>117700</v>
       </c>
       <c r="F49" s="3">
-        <v>63800</v>
+        <v>36500</v>
       </c>
       <c r="G49" s="3">
-        <v>27600</v>
+        <v>27400</v>
       </c>
       <c r="H49" s="3">
-        <v>3500</v>
+        <v>15500</v>
       </c>
       <c r="I49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J49" s="3">
         <v>1700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9000</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>165600</v>
+        <v>2005100</v>
       </c>
       <c r="E52" s="3">
-        <v>791900</v>
+        <v>245200</v>
       </c>
       <c r="F52" s="3">
-        <v>200600</v>
+        <v>850100</v>
       </c>
       <c r="G52" s="3">
-        <v>15500</v>
+        <v>228300</v>
       </c>
       <c r="H52" s="3">
-        <v>12800</v>
+        <v>26200</v>
       </c>
       <c r="I52" s="3">
-        <v>8700</v>
+        <v>14000</v>
       </c>
       <c r="J52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K52" s="3">
         <v>7900</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10541800</v>
+        <v>12478200</v>
       </c>
       <c r="E54" s="3">
-        <v>8612500</v>
+        <v>10191600</v>
       </c>
       <c r="F54" s="3">
-        <v>6108200</v>
+        <v>8326400</v>
       </c>
       <c r="G54" s="3">
-        <v>4504900</v>
+        <v>5905300</v>
       </c>
       <c r="H54" s="3">
-        <v>3642900</v>
+        <v>4355300</v>
       </c>
       <c r="I54" s="3">
-        <v>2861000</v>
+        <v>3521900</v>
       </c>
       <c r="J54" s="3">
+        <v>2766000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2292200</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,116 +2007,129 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>362500</v>
+        <v>172400</v>
       </c>
       <c r="E57" s="3">
-        <v>207200</v>
+        <v>350500</v>
       </c>
       <c r="F57" s="3">
-        <v>104000</v>
+        <v>200300</v>
       </c>
       <c r="G57" s="3">
-        <v>61000</v>
+        <v>100500</v>
       </c>
       <c r="H57" s="3">
-        <v>32500</v>
+        <v>58900</v>
       </c>
       <c r="I57" s="3">
-        <v>23400</v>
+        <v>31500</v>
       </c>
       <c r="J57" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K57" s="3">
         <v>19900</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>983000</v>
+        <v>1959700</v>
       </c>
       <c r="E58" s="3">
-        <v>566300</v>
+        <v>950300</v>
       </c>
       <c r="F58" s="3">
-        <v>337300</v>
+        <v>547500</v>
       </c>
       <c r="G58" s="3">
-        <v>304200</v>
+        <v>326100</v>
       </c>
       <c r="H58" s="3">
-        <v>144800</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>17</v>
+        <v>294100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>140000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2179300</v>
+        <v>3744400</v>
       </c>
       <c r="E59" s="3">
-        <v>2603500</v>
+        <v>2106900</v>
       </c>
       <c r="F59" s="3">
-        <v>1290300</v>
+        <v>2517000</v>
       </c>
       <c r="G59" s="3">
-        <v>637500</v>
+        <v>1247400</v>
       </c>
       <c r="H59" s="3">
-        <v>450900</v>
+        <v>616400</v>
       </c>
       <c r="I59" s="3">
-        <v>507400</v>
+        <v>436000</v>
       </c>
       <c r="J59" s="3">
+        <v>490500</v>
+      </c>
+      <c r="K59" s="3">
         <v>318800</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3524800</v>
+        <v>5037400</v>
       </c>
       <c r="E60" s="3">
-        <v>2846000</v>
+        <v>3407700</v>
       </c>
       <c r="F60" s="3">
-        <v>1731600</v>
+        <v>2751400</v>
       </c>
       <c r="G60" s="3">
-        <v>1002700</v>
+        <v>1674000</v>
       </c>
       <c r="H60" s="3">
-        <v>628200</v>
+        <v>969400</v>
       </c>
       <c r="I60" s="3">
-        <v>530800</v>
+        <v>607400</v>
       </c>
       <c r="J60" s="3">
+        <v>513200</v>
+      </c>
+      <c r="K60" s="3">
         <v>338800</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2047,36 +2154,42 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>34400</v>
+        <v>63300</v>
       </c>
       <c r="E62" s="3">
-        <v>58200</v>
+        <v>33200</v>
       </c>
       <c r="F62" s="3">
-        <v>24700</v>
+        <v>56300</v>
       </c>
       <c r="G62" s="3">
-        <v>15800</v>
+        <v>23900</v>
       </c>
       <c r="H62" s="3">
-        <v>21500</v>
+        <v>15300</v>
       </c>
       <c r="I62" s="3">
-        <v>14800</v>
+        <v>20800</v>
       </c>
       <c r="J62" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K62" s="3">
         <v>9500</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3754700</v>
+        <v>5988300</v>
       </c>
       <c r="E66" s="3">
-        <v>2944600</v>
+        <v>3630000</v>
       </c>
       <c r="F66" s="3">
-        <v>1768700</v>
+        <v>2846800</v>
       </c>
       <c r="G66" s="3">
-        <v>1033600</v>
+        <v>1709900</v>
       </c>
       <c r="H66" s="3">
-        <v>638300</v>
+        <v>999200</v>
       </c>
       <c r="I66" s="3">
-        <v>533900</v>
+        <v>617100</v>
       </c>
       <c r="J66" s="3">
+        <v>516100</v>
+      </c>
+      <c r="K66" s="3">
         <v>344000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6521000</v>
+        <v>6487000</v>
       </c>
       <c r="E72" s="3">
-        <v>5415300</v>
+        <v>6304400</v>
       </c>
       <c r="F72" s="3">
-        <v>4071000</v>
+        <v>5235400</v>
       </c>
       <c r="G72" s="3">
-        <v>3149800</v>
+        <v>3935700</v>
       </c>
       <c r="H72" s="3">
-        <v>2746900</v>
+        <v>3045200</v>
       </c>
       <c r="I72" s="3">
-        <v>2123700</v>
+        <v>2655700</v>
       </c>
       <c r="J72" s="3">
+        <v>2053100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1728800</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6787100</v>
+        <v>6489800</v>
       </c>
       <c r="E76" s="3">
-        <v>5667900</v>
+        <v>6561600</v>
       </c>
       <c r="F76" s="3">
-        <v>4339500</v>
+        <v>5479700</v>
       </c>
       <c r="G76" s="3">
-        <v>3471400</v>
+        <v>4195400</v>
       </c>
       <c r="H76" s="3">
-        <v>3004600</v>
+        <v>3356000</v>
       </c>
       <c r="I76" s="3">
-        <v>2327200</v>
+        <v>2904800</v>
       </c>
       <c r="J76" s="3">
+        <v>2249900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1948100</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1589200</v>
+        <v>882700</v>
       </c>
       <c r="E81" s="3">
-        <v>1722200</v>
+        <v>1536400</v>
       </c>
       <c r="F81" s="3">
-        <v>999600</v>
+        <v>1665000</v>
       </c>
       <c r="G81" s="3">
-        <v>705900</v>
+        <v>966400</v>
       </c>
       <c r="H81" s="3">
-        <v>659500</v>
+        <v>682500</v>
       </c>
       <c r="I81" s="3">
-        <v>539800</v>
+        <v>637600</v>
       </c>
       <c r="J81" s="3">
+        <v>521900</v>
+      </c>
+      <c r="K81" s="3">
         <v>480000</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>119000</v>
+        <v>298900</v>
       </c>
       <c r="E83" s="3">
-        <v>48600</v>
+        <v>115000</v>
       </c>
       <c r="F83" s="3">
-        <v>27100</v>
+        <v>47000</v>
       </c>
       <c r="G83" s="3">
-        <v>25900</v>
+        <v>26200</v>
       </c>
       <c r="H83" s="3">
-        <v>23500</v>
+        <v>25000</v>
       </c>
       <c r="I83" s="3">
-        <v>34700</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>22700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1764500</v>
+        <v>1924900</v>
       </c>
       <c r="E89" s="3">
-        <v>2298600</v>
+        <v>1705900</v>
       </c>
       <c r="F89" s="3">
-        <v>1198700</v>
+        <v>2222300</v>
       </c>
       <c r="G89" s="3">
-        <v>871600</v>
+        <v>1158900</v>
       </c>
       <c r="H89" s="3">
-        <v>777100</v>
+        <v>842700</v>
       </c>
       <c r="I89" s="3">
-        <v>626900</v>
+        <v>751200</v>
       </c>
       <c r="J89" s="3">
+        <v>606100</v>
+      </c>
+      <c r="K89" s="3">
         <v>604500</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-273500</v>
+        <v>-362700</v>
       </c>
       <c r="E91" s="3">
-        <v>-168500</v>
+        <v>-264400</v>
       </c>
       <c r="F91" s="3">
-        <v>-128600</v>
+        <v>-162900</v>
       </c>
       <c r="G91" s="3">
-        <v>-79800</v>
+        <v>-124300</v>
       </c>
       <c r="H91" s="3">
-        <v>-32500</v>
+        <v>-77100</v>
       </c>
       <c r="I91" s="3">
-        <v>-26500</v>
+        <v>-31400</v>
       </c>
       <c r="J91" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-60900</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1907900</v>
+        <v>-1947000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2078000</v>
+        <v>-1844500</v>
       </c>
       <c r="F94" s="3">
-        <v>-376400</v>
+        <v>-1701900</v>
       </c>
       <c r="G94" s="3">
-        <v>-670800</v>
+        <v>-363900</v>
       </c>
       <c r="H94" s="3">
-        <v>-809300</v>
+        <v>-648600</v>
       </c>
       <c r="I94" s="3">
-        <v>-661000</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-782400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-639100</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-483500</v>
+        <v>-206600</v>
       </c>
       <c r="E96" s="3">
-        <v>-377900</v>
+        <v>-467400</v>
       </c>
       <c r="F96" s="3">
-        <v>-217900</v>
+        <v>-365300</v>
       </c>
       <c r="G96" s="3">
-        <v>-294300</v>
+        <v>-210600</v>
       </c>
       <c r="H96" s="3">
-        <v>-121000</v>
+        <v>-284500</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-117000</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-193300</v>
+        <v>227800</v>
       </c>
       <c r="E100" s="3">
-        <v>-334000</v>
+        <v>-186900</v>
       </c>
       <c r="F100" s="3">
-        <v>-242300</v>
+        <v>-322900</v>
       </c>
       <c r="G100" s="3">
-        <v>-115500</v>
+        <v>-234300</v>
       </c>
       <c r="H100" s="3">
-        <v>12900</v>
+        <v>-111700</v>
       </c>
       <c r="I100" s="3">
-        <v>-57900</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>12500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1900</v>
+        <v>11700</v>
       </c>
       <c r="E101" s="3">
-        <v>19600</v>
+        <v>-1800</v>
       </c>
       <c r="F101" s="3">
-        <v>21100</v>
+        <v>19000</v>
       </c>
       <c r="G101" s="3">
-        <v>-1700</v>
+        <v>20400</v>
       </c>
       <c r="H101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-338600</v>
+        <v>217400</v>
       </c>
       <c r="E102" s="3">
-        <v>-93800</v>
+        <v>-327400</v>
       </c>
       <c r="F102" s="3">
-        <v>601100</v>
+        <v>216500</v>
       </c>
       <c r="G102" s="3">
-        <v>83600</v>
+        <v>581100</v>
       </c>
       <c r="H102" s="3">
-        <v>-19700</v>
+        <v>80800</v>
       </c>
       <c r="I102" s="3">
-        <v>-92600</v>
+        <v>-19000</v>
       </c>
       <c r="J102" s="3">
+        <v>-89500</v>
+      </c>
+      <c r="K102" s="3">
         <v>137900</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
